--- a/earlywarning-pom/earlywarning-config/src/baf-instances/70_Inst_Workspace_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/70_Inst_Workspace_SME_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>SME_RETAIL</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_SME_RETAIL</t>
   </si>
   <si>
@@ -214,16 +211,19 @@
     <t>SME_RETAIL_TARGET</t>
   </si>
   <si>
-    <t>WS_SME_RETAIL</t>
-  </si>
-  <si>
-    <t>WS_SME_RETAIL_COUNTERPARTY_SME_RETAIL</t>
-  </si>
-  <si>
-    <t>WS_SME_RETAIL_BL_SME_RETAIL_000001</t>
-  </si>
-  <si>
-    <t>WS_SME_RETAIL_SME_RETAIL_TARGET</t>
+    <t>WSSMERETAIL</t>
+  </si>
+  <si>
+    <t>WSSMERETAIL_COUNTERPARTY_SME_RETAIL</t>
+  </si>
+  <si>
+    <t>WSSMERETAIL_BL_SME_RETAIL_000001</t>
+  </si>
+  <si>
+    <t>WSSMERETAIL_SME_RETAIL_TARGET</t>
+  </si>
+  <si>
+    <t>SME Retail</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,13 +1047,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -1070,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1117,19 +1117,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1192,16 +1192,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1262,19 +1262,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
